--- a/xlsx/country_comparison/field_injustice_gpt_positive.xlsx
+++ b/xlsx/country_comparison/field_injustice_gpt_positive.xlsx
@@ -700,7 +700,7 @@
         <v>0.0933793039120148</v>
       </c>
       <c r="K6" t="n">
-        <v>0.0396958654924628</v>
+        <v>0.0396958654924627</v>
       </c>
       <c r="L6" t="n">
         <v>0.288214720804481</v>
@@ -940,7 +940,7 @@
         <v>0.0743090268695431</v>
       </c>
       <c r="I12" t="n">
-        <v>0.0906640522432373</v>
+        <v>0.0906640522432372</v>
       </c>
       <c r="J12" t="n">
         <v>0.0690531953451195</v>
@@ -1098,7 +1098,7 @@
         <v>0.0501773301882095</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0457572768973239</v>
+        <v>0.045757276897324</v>
       </c>
       <c r="H16" t="n">
         <v>0.031739749891729</v>
@@ -1186,7 +1186,7 @@
         <v>0.0284039640404207</v>
       </c>
       <c r="I18" t="n">
-        <v>0.0785664607010943</v>
+        <v>0.0785664607010944</v>
       </c>
       <c r="J18" t="n">
         <v>0.0400242421982144</v>
@@ -1262,7 +1262,7 @@
         <v>0.0479903213926106</v>
       </c>
       <c r="G20" t="n">
-        <v>0.00616350396379807</v>
+        <v>0.00616350396379808</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1385,7 +1385,7 @@
         <v>0.01197283315675</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0064843891551355</v>
+        <v>0.00648438915513551</v>
       </c>
       <c r="H23" t="n">
         <v>0.0196247963619864</v>

--- a/xlsx/country_comparison/field_injustice_gpt_positive.xlsx
+++ b/xlsx/country_comparison/field_injustice_gpt_positive.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -47,6 +47,9 @@
     <t xml:space="preserve">Japan</t>
   </si>
   <si>
+    <t xml:space="preserve">Russia</t>
+  </si>
+  <si>
     <t xml:space="preserve">Saudi Arabia</t>
   </si>
   <si>
@@ -56,12 +59,12 @@
     <t xml:space="preserve">Poverty; inequality</t>
   </si>
   <si>
+    <t xml:space="preserve">Other topic; unclear; vague</t>
+  </si>
+  <si>
     <t xml:space="preserve">Own country referred</t>
   </si>
   <si>
-    <t xml:space="preserve">Other topic; unclear; vague</t>
-  </si>
-  <si>
     <t xml:space="preserve">Discrimination; gender inequality; racism; LGBT</t>
   </si>
   <si>
@@ -71,61 +74,61 @@
     <t xml:space="preserve">International issues</t>
   </si>
   <si>
+    <t xml:space="preserve">Corruption; criticism of the government</t>
+  </si>
+  <si>
     <t xml:space="preserve">Security; violence; crime; judicial system</t>
   </si>
   <si>
-    <t xml:space="preserve">Corruption; criticism of the government</t>
-  </si>
-  <si>
     <t xml:space="preserve">Tax system; welfare benefits; public services</t>
   </si>
   <si>
+    <t xml:space="preserve">Money; own income; cost of living; inflation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nothing; don't know; empty</t>
+  </si>
+  <si>
     <t xml:space="preserve">Global poverty; hunger; global inequality</t>
   </si>
   <si>
-    <t xml:space="preserve">Nothing; don't know; empty</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Money; own income; cost of living; inflation</t>
-  </si>
-  <si>
     <t xml:space="preserve">War; peace</t>
   </si>
   <si>
+    <t xml:space="preserve">Health; healthcare system</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Work; (un)employment; business</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Family; children; childcare</t>
+  </si>
+  <si>
     <t xml:space="preserve">Criticism of far right; Trump; tariffs</t>
   </si>
   <si>
-    <t xml:space="preserve">Work; (un)employment; business</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Health; healthcare system</t>
-  </si>
-  <si>
     <t xml:space="preserve">Criticism of immigration; national preference</t>
   </si>
   <si>
-    <t xml:space="preserve">Family; children; childcare</t>
-  </si>
-  <si>
     <t xml:space="preserve">Happiness; peace of mind</t>
   </si>
   <si>
+    <t xml:space="preserve">Social division; fake news; (social) media</t>
+  </si>
+  <si>
     <t xml:space="preserve">Old age; retirement; ageing society</t>
   </si>
   <si>
+    <t xml:space="preserve">Education</t>
+  </si>
+  <si>
     <t xml:space="preserve">Housing</t>
   </si>
   <si>
-    <t xml:space="preserve">Education</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Social division; fake news; (social) media</t>
+    <t xml:space="preserve">Relationships; love; emotions</t>
   </si>
   <si>
     <t xml:space="preserve">Religion; sin; God</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Relationships; love; emotions</t>
   </si>
   <si>
     <t xml:space="preserve">Environment; climate change</t>
@@ -503,1100 +506,1181 @@
       <c r="M1" t="s">
         <v>12</v>
       </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B2" t="n">
-        <v>0.291136997941129</v>
+        <v>0.299848720994054</v>
       </c>
       <c r="C2" t="n">
         <v>0.379607824230184</v>
       </c>
       <c r="D2" t="n">
-        <v>0.372447600659162</v>
+        <v>0.383106390733665</v>
       </c>
       <c r="E2" t="n">
-        <v>0.422016798721976</v>
+        <v>0.428530627914253</v>
       </c>
       <c r="F2" t="n">
-        <v>0.394640825742928</v>
+        <v>0.39300046178851</v>
       </c>
       <c r="G2" t="n">
-        <v>0.44781852748851</v>
+        <v>0.467078333811605</v>
       </c>
       <c r="H2" t="n">
-        <v>0.356268155889815</v>
+        <v>0.34444638678814</v>
       </c>
       <c r="I2" t="n">
-        <v>0.287464650482735</v>
+        <v>0.27234114162321</v>
       </c>
       <c r="J2" t="n">
-        <v>0.466015652154362</v>
+        <v>0.482362062581554</v>
       </c>
       <c r="K2" t="n">
-        <v>0.40821538232695</v>
+        <v>0.409377139099111</v>
       </c>
       <c r="L2" t="n">
-        <v>0.163450007134339</v>
+        <v>0.374185021101988</v>
       </c>
       <c r="M2" t="n">
-        <v>0.156899736795101</v>
+        <v>0.176710999060767</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0.156175741174545</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B3" t="n">
-        <v>0.224954510914556</v>
+        <v>0.237203707138556</v>
       </c>
       <c r="C3" t="n">
-        <v>0.178310396537914</v>
+        <v>0.16434625623931</v>
       </c>
       <c r="D3" t="n">
-        <v>0.12296383341935</v>
+        <v>0.168156930423412</v>
       </c>
       <c r="E3" t="n">
-        <v>0.24197337506759</v>
+        <v>0.139310256153072</v>
       </c>
       <c r="F3" t="n">
-        <v>0.159312104743426</v>
+        <v>0.171750061986077</v>
       </c>
       <c r="G3" t="n">
-        <v>0.140021120879992</v>
+        <v>0.0859176009338163</v>
       </c>
       <c r="H3" t="n">
-        <v>0.146259255878849</v>
+        <v>0.161342269592989</v>
       </c>
       <c r="I3" t="n">
-        <v>0.229573147299788</v>
+        <v>0.23537811159155</v>
       </c>
       <c r="J3" t="n">
-        <v>0.122623260363477</v>
+        <v>0.145847560973758</v>
       </c>
       <c r="K3" t="n">
-        <v>0.175761302422936</v>
+        <v>0.15787131424829</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0408679518792619</v>
+        <v>0.350544925828707</v>
       </c>
       <c r="M3" t="n">
-        <v>0.312126321050904</v>
+        <v>0.28366269929078</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.301867048576147</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B4" t="n">
-        <v>0.220823982436916</v>
+        <v>0.206314959938235</v>
       </c>
       <c r="C4" t="n">
-        <v>0.16434625623931</v>
+        <v>0.178310396537914</v>
       </c>
       <c r="D4" t="n">
-        <v>0.174646597237214</v>
+        <v>0.125275453807082</v>
       </c>
       <c r="E4" t="n">
-        <v>0.132741677451372</v>
+        <v>0.228993333709234</v>
       </c>
       <c r="F4" t="n">
-        <v>0.17106015178657</v>
+        <v>0.146899425270405</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0821560370523368</v>
+        <v>0.119429540459728</v>
       </c>
       <c r="H4" t="n">
-        <v>0.168596502633898</v>
+        <v>0.143770372378993</v>
       </c>
       <c r="I4" t="n">
-        <v>0.23172772611577</v>
+        <v>0.21926485176654</v>
       </c>
       <c r="J4" t="n">
-        <v>0.158676064858656</v>
+        <v>0.134293304505085</v>
       </c>
       <c r="K4" t="n">
-        <v>0.154764922290312</v>
+        <v>0.175245883099578</v>
       </c>
       <c r="L4" t="n">
-        <v>0.277640822163063</v>
+        <v>0.0788454277875844</v>
       </c>
       <c r="M4" t="n">
-        <v>0.305061280837266</v>
+        <v>0.0446668443294515</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.308567953812736</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B5" t="n">
-        <v>0.220432413887107</v>
+        <v>0.20357359592325</v>
       </c>
       <c r="C5" t="n">
         <v>0.191318421688496</v>
       </c>
       <c r="D5" t="n">
-        <v>0.237688251834088</v>
+        <v>0.236751205758913</v>
       </c>
       <c r="E5" t="n">
-        <v>0.150869383038869</v>
+        <v>0.166741246755602</v>
       </c>
       <c r="F5" t="n">
-        <v>0.225128691941258</v>
+        <v>0.219583749525172</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0857986157564403</v>
+        <v>0.070515057099701</v>
       </c>
       <c r="H5" t="n">
-        <v>0.191909744584084</v>
+        <v>0.18574353598397</v>
       </c>
       <c r="I5" t="n">
-        <v>0.223534953463122</v>
+        <v>0.229147277120408</v>
       </c>
       <c r="J5" t="n">
-        <v>0.190133192419954</v>
+        <v>0.204763247178264</v>
       </c>
       <c r="K5" t="n">
-        <v>0.179316015202395</v>
+        <v>0.181991707675195</v>
       </c>
       <c r="L5" t="n">
-        <v>0.280988414658427</v>
+        <v>0.103744660274714</v>
       </c>
       <c r="M5" t="n">
-        <v>0.264083326253899</v>
+        <v>0.28493973951483</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.262977852332668</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B6" t="n">
-        <v>0.181307952144108</v>
+        <v>0.168980570547212</v>
       </c>
       <c r="C6" t="n">
         <v>0.123252222262904</v>
       </c>
       <c r="D6" t="n">
-        <v>0.119835974580187</v>
+        <v>0.11358875849134</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0724923793819851</v>
+        <v>0.0699305628994033</v>
       </c>
       <c r="F6" t="n">
-        <v>0.160419521202212</v>
+        <v>0.159539509116111</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0697293140815619</v>
+        <v>0.0635778356903598</v>
       </c>
       <c r="H6" t="n">
-        <v>0.108626733806847</v>
+        <v>0.108671339383793</v>
       </c>
       <c r="I6" t="n">
-        <v>0.201714516064335</v>
+        <v>0.200670275129543</v>
       </c>
       <c r="J6" t="n">
-        <v>0.0933793039120148</v>
+        <v>0.084945892411505</v>
       </c>
       <c r="K6" t="n">
-        <v>0.0396958654924627</v>
+        <v>0.0395618937657579</v>
       </c>
       <c r="L6" t="n">
-        <v>0.288214720804481</v>
+        <v>0.101217856567214</v>
       </c>
       <c r="M6" t="n">
-        <v>0.294088346593517</v>
+        <v>0.284675476864344</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.293755350591929</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B7" t="n">
-        <v>0.158377915751173</v>
+        <v>0.146448501133578</v>
       </c>
       <c r="C7" t="n">
         <v>0.201367429719218</v>
       </c>
       <c r="D7" t="n">
-        <v>0.107421709620239</v>
+        <v>0.107579741688735</v>
       </c>
       <c r="E7" t="n">
-        <v>0.140225515042671</v>
+        <v>0.141026000100566</v>
       </c>
       <c r="F7" t="n">
-        <v>0.242188100295427</v>
+        <v>0.242682894681295</v>
       </c>
       <c r="G7" t="n">
-        <v>0.369132246596866</v>
+        <v>0.365710224953353</v>
       </c>
       <c r="H7" t="n">
-        <v>0.181860400851979</v>
+        <v>0.193433950019754</v>
       </c>
       <c r="I7" t="n">
-        <v>0.262346511845457</v>
+        <v>0.252638428891973</v>
       </c>
       <c r="J7" t="n">
-        <v>0.135633713244301</v>
+        <v>0.142226145451143</v>
       </c>
       <c r="K7" t="n">
-        <v>0.0197306446170025</v>
+        <v>0.0191721083526054</v>
       </c>
       <c r="L7" t="n">
-        <v>0.163333772123318</v>
+        <v>0.0638531796701071</v>
       </c>
       <c r="M7" t="n">
-        <v>0.167916115831589</v>
+        <v>0.169483419879558</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.168839929312816</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B8" t="n">
-        <v>0.136223131000393</v>
+        <v>0.13076848553173</v>
       </c>
       <c r="C8" t="n">
-        <v>0.116423087925096</v>
+        <v>0.10975621589324</v>
       </c>
       <c r="D8" t="n">
-        <v>0.153523399945154</v>
+        <v>0.0752824629903547</v>
       </c>
       <c r="E8" t="n">
-        <v>0.0245542366056575</v>
+        <v>0.0788480185772115</v>
       </c>
       <c r="F8" t="n">
-        <v>0.159463785791702</v>
+        <v>0.12839111657431</v>
       </c>
       <c r="G8" t="n">
-        <v>0.044371342316057</v>
+        <v>0.0551413945323128</v>
       </c>
       <c r="H8" t="n">
-        <v>0.12129234491608</v>
+        <v>0.133706009297009</v>
       </c>
       <c r="I8" t="n">
-        <v>0.199993937457158</v>
+        <v>0.157768426282657</v>
       </c>
       <c r="J8" t="n">
-        <v>0.0429663888417339</v>
+        <v>0.0551564177571546</v>
       </c>
       <c r="K8" t="n">
-        <v>0.0174718679478739</v>
+        <v>0.0764199748656044</v>
       </c>
       <c r="L8" t="n">
-        <v>0.198666033881136</v>
+        <v>0.11126303046889</v>
       </c>
       <c r="M8" t="n">
-        <v>0.201468349984172</v>
+        <v>0.113148347477788</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0.185150157064038</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B9" t="n">
-        <v>0.134217475467326</v>
+        <v>0.125690749299634</v>
       </c>
       <c r="C9" t="n">
-        <v>0.10975621589324</v>
+        <v>0.116423087925096</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0783080621486649</v>
+        <v>0.145048290059828</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0852718004795922</v>
+        <v>0.0259849800701356</v>
       </c>
       <c r="F9" t="n">
-        <v>0.13546947980576</v>
+        <v>0.150124247211813</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0735987584893977</v>
+        <v>0.0411385001482822</v>
       </c>
       <c r="H9" t="n">
-        <v>0.130762609037835</v>
+        <v>0.120459163349451</v>
       </c>
       <c r="I9" t="n">
-        <v>0.162484235065024</v>
+        <v>0.213078974573974</v>
       </c>
       <c r="J9" t="n">
-        <v>0.0501978918844334</v>
+        <v>0.0408066655072365</v>
       </c>
       <c r="K9" t="n">
-        <v>0.0757780184022581</v>
+        <v>0.0171711263334772</v>
       </c>
       <c r="L9" t="n">
-        <v>0.113010187836127</v>
+        <v>0.05305558139113</v>
       </c>
       <c r="M9" t="n">
-        <v>0.186912378887431</v>
+        <v>0.188101401357083</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0.201846451513117</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B10" t="n">
-        <v>0.117030277480577</v>
+        <v>0.109602462354863</v>
       </c>
       <c r="C10" t="n">
         <v>0.132640648633674</v>
       </c>
       <c r="D10" t="n">
-        <v>0.113919708891483</v>
+        <v>0.116755043978616</v>
       </c>
       <c r="E10" t="n">
-        <v>0.269567219554479</v>
+        <v>0.257604405758458</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0717367449786864</v>
+        <v>0.0654525686764239</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0316320120929817</v>
+        <v>0.0354726790400431</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0698652108348484</v>
+        <v>0.0643024601359328</v>
       </c>
       <c r="I10" t="n">
-        <v>0.149597235715064</v>
+        <v>0.157458018152739</v>
       </c>
       <c r="J10" t="n">
-        <v>0.111403181988513</v>
+        <v>0.106153321923299</v>
       </c>
       <c r="K10" t="n">
-        <v>0.209411775772338</v>
+        <v>0.207900123172293</v>
       </c>
       <c r="L10" t="n">
-        <v>0.00635219267532108</v>
+        <v>0.0594598837685185</v>
       </c>
       <c r="M10" t="n">
-        <v>0.0713717336787608</v>
+        <v>0.0050091982932567</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0.0711804611556924</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0845691180748706</v>
+        <v>0.0971311637888134</v>
       </c>
       <c r="C11" t="n">
-        <v>0.142222302723301</v>
+        <v>0.0977448568617962</v>
       </c>
       <c r="D11" t="n">
-        <v>0.148447425673071</v>
+        <v>0.107748561410452</v>
       </c>
       <c r="E11" t="n">
-        <v>0.0811196738053382</v>
+        <v>0.118838926880645</v>
       </c>
       <c r="F11" t="n">
-        <v>0.198450801654352</v>
+        <v>0.0871212802155489</v>
       </c>
       <c r="G11" t="n">
-        <v>0.137030387103</v>
+        <v>0.104562836800394</v>
       </c>
       <c r="H11" t="n">
-        <v>0.22056961013786</v>
+        <v>0.0803608597937457</v>
       </c>
       <c r="I11" t="n">
-        <v>0.110957554355097</v>
+        <v>0.062809296463231</v>
       </c>
       <c r="J11" t="n">
-        <v>0.0867197288426034</v>
+        <v>0.193202005944839</v>
       </c>
       <c r="K11" t="n">
-        <v>0.0216355396689436</v>
+        <v>0.12061045749135</v>
       </c>
       <c r="L11" t="n">
-        <v>0.0664318073813622</v>
+        <v>0.191567847425914</v>
       </c>
       <c r="M11" t="n">
-        <v>0.0488386965473746</v>
+        <v>0.035722429855013</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0.0531058407190556</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0833118649593642</v>
+        <v>0.087405255393772</v>
       </c>
       <c r="C12" t="n">
         <v>0.0671024241823383</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0903100909305079</v>
+        <v>0.0907094935471546</v>
       </c>
       <c r="E12" t="n">
-        <v>0.0582096162032386</v>
+        <v>0.0563285510537544</v>
       </c>
       <c r="F12" t="n">
-        <v>0.0402337729431193</v>
+        <v>0.0432483434768305</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0358790646052462</v>
+        <v>0.0308288925637526</v>
       </c>
       <c r="H12" t="n">
-        <v>0.0743090268695431</v>
+        <v>0.081452689714342</v>
       </c>
       <c r="I12" t="n">
-        <v>0.0906640522432372</v>
+        <v>0.0873940812101499</v>
       </c>
       <c r="J12" t="n">
-        <v>0.0690531953451195</v>
+        <v>0.0631680841066284</v>
       </c>
       <c r="K12" t="n">
-        <v>0.157897182459477</v>
+        <v>0.155618854206164</v>
       </c>
       <c r="L12" t="n">
-        <v>0.0664039031479636</v>
+        <v>0.116633474759854</v>
       </c>
       <c r="M12" t="n">
-        <v>0.071820039423376</v>
+        <v>0.0709578059931298</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0.0719106694806072</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0823229244381311</v>
+        <v>0.0751306305423448</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0977448568617962</v>
+        <v>0.142222302723301</v>
       </c>
       <c r="D13" t="n">
-        <v>0.104334600699903</v>
+        <v>0.149163084772395</v>
       </c>
       <c r="E13" t="n">
-        <v>0.120507267077377</v>
+        <v>0.0897495837587619</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0934588995436466</v>
+        <v>0.186621597950749</v>
       </c>
       <c r="G13" t="n">
-        <v>0.103514083948079</v>
+        <v>0.135156841854203</v>
       </c>
       <c r="H13" t="n">
-        <v>0.0776521610951006</v>
+        <v>0.228764967985068</v>
       </c>
       <c r="I13" t="n">
-        <v>0.0695532335044786</v>
+        <v>0.0986567475580753</v>
       </c>
       <c r="J13" t="n">
-        <v>0.164253551537879</v>
+        <v>0.0936825014344356</v>
       </c>
       <c r="K13" t="n">
-        <v>0.124066875614354</v>
+        <v>0.021805122728075</v>
       </c>
       <c r="L13" t="n">
-        <v>0.0400713299396836</v>
+        <v>0.0147126267978271</v>
       </c>
       <c r="M13" t="n">
-        <v>0.0518529548712786</v>
+        <v>0.063400153657688</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0.0493783888463792</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0603315078192686</v>
+        <v>0.0584640378390474</v>
       </c>
       <c r="C14" t="n">
         <v>0.0983685001711527</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0409658514697527</v>
+        <v>0.0430966029528136</v>
       </c>
       <c r="E14" t="n">
-        <v>0.0605980551025728</v>
+        <v>0.0584470595647581</v>
       </c>
       <c r="F14" t="n">
-        <v>0.109597425004058</v>
+        <v>0.108601688416392</v>
       </c>
       <c r="G14" t="n">
-        <v>0.282733726278485</v>
+        <v>0.298301320417265</v>
       </c>
       <c r="H14" t="n">
-        <v>0.0876481183082546</v>
+        <v>0.0949498756715952</v>
       </c>
       <c r="I14" t="n">
-        <v>0.0988049940029427</v>
+        <v>0.095869573686683</v>
       </c>
       <c r="J14" t="n">
-        <v>0.0652541683703387</v>
+        <v>0.0623522430628259</v>
       </c>
       <c r="K14" t="n">
-        <v>0.00590418772075127</v>
+        <v>0.00578200607874687</v>
       </c>
       <c r="L14" t="n">
-        <v>0.115737946061263</v>
+        <v>0.0436941025754563</v>
       </c>
       <c r="M14" t="n">
-        <v>0.0362949414752833</v>
+        <v>0.113220109044918</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0.0351481560702924</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0482527194925654</v>
+        <v>0.05357203526998</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0159273771810526</v>
+        <v>0.0503222716239178</v>
       </c>
       <c r="D15" t="n">
-        <v>0.00530540832827688</v>
+        <v>0.0860231420992884</v>
       </c>
       <c r="E15" t="n">
-        <v>0.0168365028874186</v>
+        <v>0.0253361861784924</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0190267108469018</v>
+        <v>0.046002975568035</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0225919141367999</v>
+        <v>0.0557870740453977</v>
       </c>
       <c r="H15" t="n">
-        <v>0.00419658808051044</v>
+        <v>0.0527899383023069</v>
       </c>
       <c r="I15" t="n">
-        <v>0.0290435131917566</v>
+        <v>0.0367378847358178</v>
       </c>
       <c r="J15" t="n">
-        <v>0.00866215769511762</v>
+        <v>0.0475706753941503</v>
       </c>
       <c r="K15" t="n">
-        <v>0.00381898012035089</v>
+        <v>0.0239819041605993</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>0.0994612074022394</v>
       </c>
       <c r="M15" t="n">
-        <v>0.106120542882817</v>
+        <v>0.0391686909619266</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0.0503895995114895</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0475685392618647</v>
+        <v>0.0525274648518565</v>
       </c>
       <c r="C16" t="n">
         <v>0.0560052351637074</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0663597896732093</v>
+        <v>0.069555109958224</v>
       </c>
       <c r="E16" t="n">
-        <v>0.0740033428636093</v>
+        <v>0.0737579520372241</v>
       </c>
       <c r="F16" t="n">
-        <v>0.0501773301882095</v>
+        <v>0.0527430468569663</v>
       </c>
       <c r="G16" t="n">
-        <v>0.045757276897324</v>
+        <v>0.0411471598301352</v>
       </c>
       <c r="H16" t="n">
-        <v>0.031739749891729</v>
+        <v>0.0259928876453141</v>
       </c>
       <c r="I16" t="n">
-        <v>0.0521387009436196</v>
+        <v>0.0572262973158906</v>
       </c>
       <c r="J16" t="n">
-        <v>0.06226449026409</v>
+        <v>0.0686326923943679</v>
       </c>
       <c r="K16" t="n">
-        <v>0.0895561897043315</v>
+        <v>0.0892160292857261</v>
       </c>
       <c r="L16" t="n">
-        <v>0.0495569059119515</v>
+        <v>0.0882342866641475</v>
       </c>
       <c r="M16" t="n">
-        <v>0.0208615773762085</v>
+        <v>0.0384957272254603</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0.0203228932840759</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0455020542448211</v>
+        <v>0.0470740457028754</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0503222716239178</v>
+        <v>0.0318956347139389</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0873833755117719</v>
+        <v>0.0347569102343155</v>
       </c>
       <c r="E17" t="n">
-        <v>0.0284473360093202</v>
+        <v>0.0227949352075646</v>
       </c>
       <c r="F17" t="n">
-        <v>0.0521477024974351</v>
+        <v>0.0503326400232044</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0558622870016938</v>
+        <v>0.0398434107874001</v>
       </c>
       <c r="H17" t="n">
-        <v>0.0516100263735257</v>
+        <v>0.0269444936151781</v>
       </c>
       <c r="I17" t="n">
-        <v>0.0326159865503835</v>
+        <v>0.0130829252163652</v>
       </c>
       <c r="J17" t="n">
-        <v>0.0518261842575947</v>
+        <v>0.0746011086790753</v>
       </c>
       <c r="K17" t="n">
-        <v>0.0234391653140683</v>
+        <v>0.0587829032453478</v>
       </c>
       <c r="L17" t="n">
-        <v>0.0319446755385184</v>
+        <v>0.0569843049264169</v>
       </c>
       <c r="M17" t="n">
-        <v>0.0504651358158538</v>
+        <v>0.063715983500485</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0.0518581935554064</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0453980875137992</v>
+        <v>0.0432993187169602</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0465839083523768</v>
+        <v>0.0159273771810526</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0317635570413176</v>
+        <v>0.00431485925509307</v>
       </c>
       <c r="E18" t="n">
-        <v>0.069744612555712</v>
+        <v>0.016641649524601</v>
       </c>
       <c r="F18" t="n">
-        <v>0.0188718411194425</v>
+        <v>0.0177719932615889</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0377009157262638</v>
+        <v>0.0223840174246049</v>
       </c>
       <c r="H18" t="n">
-        <v>0.0284039640404207</v>
+        <v>0.00528653334412038</v>
       </c>
       <c r="I18" t="n">
-        <v>0.0785664607010944</v>
+        <v>0.0263976937533577</v>
       </c>
       <c r="J18" t="n">
-        <v>0.0400242421982144</v>
+        <v>0.0110943078154441</v>
       </c>
       <c r="K18" t="n">
-        <v>0.0273684559023861</v>
+        <v>0.00363309988422034</v>
       </c>
       <c r="L18" t="n">
-        <v>0.0097822242303841</v>
+        <v>0.0112203364787645</v>
       </c>
       <c r="M18" t="n">
-        <v>0.0545760557368934</v>
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0.10545839437447</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0451357176472613</v>
+        <v>0.0398581700347824</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0318956347139389</v>
+        <v>0.0465839083523768</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0297347463207938</v>
+        <v>0.0303596134606511</v>
       </c>
       <c r="E19" t="n">
-        <v>0.0222269780307662</v>
+        <v>0.067759608960212</v>
       </c>
       <c r="F19" t="n">
-        <v>0.0535105003946703</v>
+        <v>0.0174913878758809</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0446264850278604</v>
+        <v>0.036005597790544</v>
       </c>
       <c r="H19" t="n">
-        <v>0.0323556108750045</v>
+        <v>0.0301003740322274</v>
       </c>
       <c r="I19" t="n">
-        <v>0.0131362115059484</v>
+        <v>0.0822581165295588</v>
       </c>
       <c r="J19" t="n">
-        <v>0.0709513031206319</v>
+        <v>0.035594242190962</v>
       </c>
       <c r="K19" t="n">
-        <v>0.0584854722118048</v>
+        <v>0.0260377303001874</v>
       </c>
       <c r="L19" t="n">
-        <v>0.0640153257245606</v>
+        <v>0.00196991877156995</v>
       </c>
       <c r="M19" t="n">
-        <v>0.0525335579477719</v>
+        <v>0.0116800076603586</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0.0541361598107681</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0386182842027851</v>
+        <v>0.0395526272518621</v>
       </c>
       <c r="C20" t="n">
         <v>0.020107200342392</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0192671137333122</v>
+        <v>0.0191072298135684</v>
       </c>
       <c r="E20" t="n">
-        <v>0.0152114399780527</v>
+        <v>0.0147445422463436</v>
       </c>
       <c r="F20" t="n">
-        <v>0.0479903213926106</v>
+        <v>0.0422960057733754</v>
       </c>
       <c r="G20" t="n">
-        <v>0.00616350396379808</v>
+        <v>0.0138812498374743</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0.0253245301823338</v>
+        <v>0.0238569653014895</v>
       </c>
       <c r="J20" t="n">
-        <v>0.0192826852229654</v>
+        <v>0.016704071214546</v>
       </c>
       <c r="K20" t="n">
-        <v>0.0430156184206181</v>
+        <v>0.0432944191285272</v>
       </c>
       <c r="L20" t="n">
-        <v>0.167196573710089</v>
+        <v>0.043864585641438</v>
       </c>
       <c r="M20" t="n">
-        <v>0.0460731453609345</v>
+        <v>0.177940248053361</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0.0447466308579002</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0309876912805482</v>
+        <v>0.0375052767931005</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0464235438367558</v>
+        <v>0.017031276019717</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0158798522283001</v>
+        <v>0.0142180700661177</v>
       </c>
       <c r="E21" t="n">
-        <v>0.119939830342584</v>
+        <v>0.0350788999893401</v>
       </c>
       <c r="F21" t="n">
-        <v>0.0201099332709574</v>
+        <v>0.00468058621332618</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0.0281365631314629</v>
+        <v>0.00830775886317187</v>
       </c>
       <c r="I21" t="n">
-        <v>0.0562044207912217</v>
+        <v>0.0275557774206001</v>
       </c>
       <c r="J21" t="n">
-        <v>0.0242591106332449</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0.0430666940206104</v>
+        <v>0.0082594908632089</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>0.1132322537932</v>
       </c>
       <c r="M21" t="n">
-        <v>0.0117509887070036</v>
+        <v>0.0372946625769812</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0.0436983227225689</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0279741070658566</v>
+        <v>0.0347947851537257</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0337159523942901</v>
+        <v>0.0464235438367558</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0357407777436178</v>
+        <v>0.0164692554815014</v>
       </c>
       <c r="E22" t="n">
-        <v>0.0210840126571064</v>
+        <v>0.106557990540902</v>
       </c>
       <c r="F22" t="n">
-        <v>0.0228163654964532</v>
+        <v>0.0160846595102554</v>
       </c>
       <c r="G22" t="n">
-        <v>0.00766466610567634</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0.0743901511162519</v>
+        <v>0.0242915178820247</v>
       </c>
       <c r="I22" t="n">
-        <v>0.0437772268629334</v>
+        <v>0.0547374046856981</v>
       </c>
       <c r="J22" t="n">
-        <v>0.0152871981847866</v>
+        <v>0.0343219665690107</v>
       </c>
       <c r="K22" t="n">
-        <v>0.00766836285669538</v>
+        <v>0.0427783149825694</v>
       </c>
       <c r="L22" t="n">
+        <v>0.0557991043447602</v>
+      </c>
+      <c r="M22" t="n">
         <v>0</v>
       </c>
-      <c r="M22" t="n">
-        <v>0.0324397077237156</v>
+      <c r="N22" t="n">
+        <v>0.0123239672396208</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B23" t="n">
-        <v>0.0278708284611801</v>
+        <v>0.0263716188475506</v>
       </c>
       <c r="C23" t="n">
         <v>0.0246002728483537</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0198300356817806</v>
+        <v>0.0188877599120833</v>
       </c>
       <c r="E23" t="n">
-        <v>0.0576032737036901</v>
+        <v>0.0619870811812808</v>
       </c>
       <c r="F23" t="n">
-        <v>0.01197283315675</v>
+        <v>0.00819962221981932</v>
       </c>
       <c r="G23" t="n">
-        <v>0.00648438915513551</v>
+        <v>0.00578913863703181</v>
       </c>
       <c r="H23" t="n">
-        <v>0.0196247963619864</v>
+        <v>0.0169166175940457</v>
       </c>
       <c r="I23" t="n">
-        <v>0.0147364714466795</v>
+        <v>0.0161053819456598</v>
       </c>
       <c r="J23" t="n">
-        <v>0.026715346617234</v>
+        <v>0.0191112586923636</v>
       </c>
       <c r="K23" t="n">
-        <v>0.0556167130637254</v>
+        <v>0.0558648964707215</v>
       </c>
       <c r="L23" t="n">
-        <v>0.0356363831593344</v>
+        <v>0.013574354678336</v>
       </c>
       <c r="M23" t="n">
-        <v>0.0193657491473343</v>
+        <v>0.0346828509910579</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0.0198152593563636</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0266071510958039</v>
+        <v>0.0247534060930215</v>
       </c>
       <c r="C24" t="n">
-        <v>0.017031276019717</v>
+        <v>0.0337159523942901</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0152229564427368</v>
+        <v>0.0350914726918312</v>
       </c>
       <c r="E24" t="n">
-        <v>0.0331506977227106</v>
+        <v>0.019411861832518</v>
       </c>
       <c r="F24" t="n">
-        <v>0.00768060568640225</v>
+        <v>0.017089497696424</v>
       </c>
       <c r="G24" t="n">
+        <v>0.00930785373822185</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0.0669189269466735</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0.0458679954908412</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0.0169749940170554</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0.00761920287517245</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0.00213424185990759</v>
+      </c>
+      <c r="M24" t="n">
         <v>0</v>
       </c>
-      <c r="H24" t="n">
-        <v>0.00485684465016774</v>
-      </c>
-      <c r="I24" t="n">
-        <v>0.0292679421653915</v>
-      </c>
-      <c r="J24" t="n">
-        <v>0</v>
-      </c>
-      <c r="K24" t="n">
-        <v>0.00767953382529776</v>
-      </c>
-      <c r="L24" t="n">
-        <v>0.0342668833699244</v>
-      </c>
-      <c r="M24" t="n">
-        <v>0.0442406030238046</v>
+      <c r="N24" t="n">
+        <v>0.0325956882961598</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B25" t="n">
-        <v>0.01764788362408</v>
+        <v>0.0216036772777795</v>
       </c>
       <c r="C25" t="n">
-        <v>0.00936358964692031</v>
+        <v>0.00785300887067463</v>
       </c>
       <c r="D25" t="n">
-        <v>0.00524295428420706</v>
+        <v>0.0217111415509661</v>
       </c>
       <c r="E25" t="n">
-        <v>0.00379226933927737</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0.0130976969113205</v>
+        <v>0.0172551840397685</v>
       </c>
       <c r="G25" t="n">
-        <v>0.0114900365458576</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0.0132764960100609</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0.0141564321318905</v>
+        <v>0.00425469613637749</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>0.00924039614910425</v>
+        <v>0.00945162809051546</v>
       </c>
       <c r="L25" t="n">
-        <v>0.0606407734608403</v>
+        <v>0.0416277601015033</v>
       </c>
       <c r="M25" t="n">
-        <v>0.0265039372096408</v>
+        <v>0.0482084199597589</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0.0279268988724834</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0173745706524871</v>
+        <v>0.0157544662076686</v>
       </c>
       <c r="C26" t="n">
-        <v>0.00785300887067463</v>
+        <v>0.00936358964692031</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0203534672696621</v>
+        <v>0.00540384631363467</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>0.00431457104570218</v>
       </c>
       <c r="F26" t="n">
-        <v>0.0210808772951232</v>
+        <v>0.0101960280597641</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>0.00814109665875526</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>0.0130851825402997</v>
       </c>
       <c r="I26" t="n">
-        <v>0.00423401188036329</v>
+        <v>0.0155048924230988</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>0.00964784119563373</v>
+        <v>0.00867228151468973</v>
       </c>
       <c r="L26" t="n">
-        <v>0.0514298367065798</v>
+        <v>0.00265630970916617</v>
       </c>
       <c r="M26" t="n">
-        <v>0.0280730333655435</v>
+        <v>0.0546232102563983</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0.0261539691301462</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0153667001701971</v>
+        <v>0.013388049366521</v>
       </c>
       <c r="C27" t="n">
         <v>0.0237797019455623</v>
       </c>
       <c r="D27" t="n">
-        <v>0.00588354694309327</v>
+        <v>0.00592025762854623</v>
       </c>
       <c r="E27" t="n">
-        <v>0.0330995303160602</v>
+        <v>0.0305535170610553</v>
       </c>
       <c r="F27" t="n">
-        <v>0.0300244617428607</v>
+        <v>0.025555363534768</v>
       </c>
       <c r="G27" t="n">
-        <v>0.0309669089667218</v>
+        <v>0.0273760457326375</v>
       </c>
       <c r="H27" t="n">
-        <v>0.0208355559267281</v>
+        <v>0.019261197533337</v>
       </c>
       <c r="I27" t="n">
-        <v>0.0245208682024471</v>
+        <v>0.0267642559239718</v>
       </c>
       <c r="J27" t="n">
-        <v>0.0152913824660595</v>
+        <v>0.0143880040020449</v>
       </c>
       <c r="K27" t="n">
-        <v>0.00207826614711036</v>
+        <v>0.00228606394348984</v>
       </c>
       <c r="L27" t="n">
-        <v>0.0225104924514475</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0.0110033689971413</v>
+        <v>0.0219729990376026</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0.0109323412705898</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0100702242817997</v>
+        <v>0.00971079930183032</v>
       </c>
       <c r="C28" t="n">
         <v>0.0114919330079454</v>
       </c>
       <c r="D28" t="n">
-        <v>0.00454636476167684</v>
+        <v>0.00536679498490362</v>
       </c>
       <c r="E28" t="n">
-        <v>0.0120231172080217</v>
+        <v>0.00982082006127667</v>
       </c>
       <c r="F28" t="n">
-        <v>0.0139204075467309</v>
+        <v>0.0105420167021995</v>
       </c>
       <c r="G28" t="n">
-        <v>0.0211949009637864</v>
+        <v>0.0171059279989278</v>
       </c>
       <c r="H28" t="n">
-        <v>0.00812631018797692</v>
+        <v>0.0063429009916464</v>
       </c>
       <c r="I28" t="n">
-        <v>0.0143455711778477</v>
+        <v>0.0177826225843208</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -1605,10 +1689,13 @@
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>0.00473940265598009</v>
+        <v>0.00583407521610505</v>
       </c>
       <c r="M28" t="n">
-        <v>0.0131152930561028</v>
+        <v>0.00346264626491969</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0.0120476794041104</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/field_injustice_gpt_positive.xlsx
+++ b/xlsx/country_comparison/field_injustice_gpt_positive.xlsx
@@ -74,21 +74,21 @@
     <t xml:space="preserve">International issues</t>
   </si>
   <si>
+    <t xml:space="preserve">Security; violence; crime; judicial system</t>
+  </si>
+  <si>
     <t xml:space="preserve">Corruption; criticism of the government</t>
   </si>
   <si>
-    <t xml:space="preserve">Security; violence; crime; judicial system</t>
-  </si>
-  <si>
     <t xml:space="preserve">Tax system; welfare benefits; public services</t>
   </si>
   <si>
+    <t xml:space="preserve">Nothing; don't know; empty</t>
+  </si>
+  <si>
     <t xml:space="preserve">Money; own income; cost of living; inflation</t>
   </si>
   <si>
-    <t xml:space="preserve">Nothing; don't know; empty</t>
-  </si>
-  <si>
     <t xml:space="preserve">Global poverty; hunger; global inequality</t>
   </si>
   <si>
@@ -101,6 +101,9 @@
     <t xml:space="preserve">Work; (un)employment; business</t>
   </si>
   <si>
+    <t xml:space="preserve">Happiness; peace of mind</t>
+  </si>
+  <si>
     <t xml:space="preserve">Family; children; childcare</t>
   </si>
   <si>
@@ -110,19 +113,16 @@
     <t xml:space="preserve">Criticism of immigration; national preference</t>
   </si>
   <si>
-    <t xml:space="preserve">Happiness; peace of mind</t>
+    <t xml:space="preserve">Housing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Old age; retirement; ageing society</t>
   </si>
   <si>
     <t xml:space="preserve">Social division; fake news; (social) media</t>
   </si>
   <si>
-    <t xml:space="preserve">Old age; retirement; ageing society</t>
-  </si>
-  <si>
     <t xml:space="preserve">Education</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Housing</t>
   </si>
   <si>
     <t xml:space="preserve">Relationships; love; emotions</t>
@@ -515,7 +515,7 @@
         <v>14</v>
       </c>
       <c r="B2" t="n">
-        <v>0.299848720994054</v>
+        <v>0.273124301673209</v>
       </c>
       <c r="C2" t="n">
         <v>0.379607824230184</v>
@@ -545,7 +545,7 @@
         <v>0.409377139099111</v>
       </c>
       <c r="L2" t="n">
-        <v>0.374185021101988</v>
+        <v>0.160657026907098</v>
       </c>
       <c r="M2" t="n">
         <v>0.176710999060767</v>
@@ -559,7 +559,7 @@
         <v>15</v>
       </c>
       <c r="B3" t="n">
-        <v>0.237203707138556</v>
+        <v>0.21883268118649</v>
       </c>
       <c r="C3" t="n">
         <v>0.16434625623931</v>
@@ -589,7 +589,7 @@
         <v>0.15787131424829</v>
       </c>
       <c r="L3" t="n">
-        <v>0.350544925828707</v>
+        <v>0.204031066972921</v>
       </c>
       <c r="M3" t="n">
         <v>0.28366269929078</v>
@@ -603,7 +603,7 @@
         <v>16</v>
       </c>
       <c r="B4" t="n">
-        <v>0.206314959938235</v>
+        <v>0.204739119911163</v>
       </c>
       <c r="C4" t="n">
         <v>0.178310396537914</v>
@@ -633,7 +633,7 @@
         <v>0.175245883099578</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0788454277875844</v>
+        <v>0.0730309302608108</v>
       </c>
       <c r="M4" t="n">
         <v>0.0446668443294515</v>
@@ -647,7 +647,7 @@
         <v>17</v>
       </c>
       <c r="B5" t="n">
-        <v>0.20357359592325</v>
+        <v>0.194193936161959</v>
       </c>
       <c r="C5" t="n">
         <v>0.191318421688496</v>
@@ -677,7 +677,7 @@
         <v>0.181991707675195</v>
       </c>
       <c r="L5" t="n">
-        <v>0.103744660274714</v>
+        <v>0.0231344891074306</v>
       </c>
       <c r="M5" t="n">
         <v>0.28493973951483</v>
@@ -691,7 +691,7 @@
         <v>18</v>
       </c>
       <c r="B6" t="n">
-        <v>0.168980570547212</v>
+        <v>0.160020718419108</v>
       </c>
       <c r="C6" t="n">
         <v>0.123252222262904</v>
@@ -721,7 +721,7 @@
         <v>0.0395618937657579</v>
       </c>
       <c r="L6" t="n">
-        <v>0.101217856567214</v>
+        <v>0.0224941216710314</v>
       </c>
       <c r="M6" t="n">
         <v>0.284675476864344</v>
@@ -735,7 +735,7 @@
         <v>19</v>
       </c>
       <c r="B7" t="n">
-        <v>0.146448501133578</v>
+        <v>0.14296441537405</v>
       </c>
       <c r="C7" t="n">
         <v>0.201367429719218</v>
@@ -765,7 +765,7 @@
         <v>0.0191721083526054</v>
       </c>
       <c r="L7" t="n">
-        <v>0.0638531796701071</v>
+        <v>0.0406192295686798</v>
       </c>
       <c r="M7" t="n">
         <v>0.169483419879558</v>
@@ -779,43 +779,43 @@
         <v>20</v>
       </c>
       <c r="B8" t="n">
-        <v>0.13076848553173</v>
+        <v>0.123520085934971</v>
       </c>
       <c r="C8" t="n">
-        <v>0.10975621589324</v>
+        <v>0.116423087925096</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0752824629903547</v>
+        <v>0.145048290059828</v>
       </c>
       <c r="E8" t="n">
-        <v>0.0788480185772115</v>
+        <v>0.0259849800701356</v>
       </c>
       <c r="F8" t="n">
-        <v>0.12839111657431</v>
+        <v>0.150124247211813</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0551413945323128</v>
+        <v>0.0411385001482822</v>
       </c>
       <c r="H8" t="n">
-        <v>0.133706009297009</v>
+        <v>0.120459163349451</v>
       </c>
       <c r="I8" t="n">
-        <v>0.157768426282657</v>
+        <v>0.213078974573974</v>
       </c>
       <c r="J8" t="n">
-        <v>0.0551564177571546</v>
+        <v>0.0408066655072365</v>
       </c>
       <c r="K8" t="n">
-        <v>0.0764199748656044</v>
+        <v>0.0171711263334772</v>
       </c>
       <c r="L8" t="n">
-        <v>0.11126303046889</v>
+        <v>0.0425388041985455</v>
       </c>
       <c r="M8" t="n">
-        <v>0.113148347477788</v>
+        <v>0.188101401357083</v>
       </c>
       <c r="N8" t="n">
-        <v>0.185150157064038</v>
+        <v>0.201846451513117</v>
       </c>
     </row>
     <row r="9">
@@ -823,43 +823,43 @@
         <v>21</v>
       </c>
       <c r="B9" t="n">
-        <v>0.125690749299634</v>
+        <v>0.123173868549124</v>
       </c>
       <c r="C9" t="n">
-        <v>0.116423087925096</v>
+        <v>0.10975621589324</v>
       </c>
       <c r="D9" t="n">
-        <v>0.145048290059828</v>
+        <v>0.0752824629903547</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0259849800701356</v>
+        <v>0.0788480185772115</v>
       </c>
       <c r="F9" t="n">
-        <v>0.150124247211813</v>
+        <v>0.12839111657431</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0411385001482822</v>
+        <v>0.0551413945323128</v>
       </c>
       <c r="H9" t="n">
-        <v>0.120459163349451</v>
+        <v>0.133706009297009</v>
       </c>
       <c r="I9" t="n">
-        <v>0.213078974573974</v>
+        <v>0.157768426282657</v>
       </c>
       <c r="J9" t="n">
-        <v>0.0408066655072365</v>
+        <v>0.0551564177571546</v>
       </c>
       <c r="K9" t="n">
-        <v>0.0171711263334772</v>
+        <v>0.0764199748656044</v>
       </c>
       <c r="L9" t="n">
-        <v>0.05305558139113</v>
+        <v>0.0490690003768072</v>
       </c>
       <c r="M9" t="n">
-        <v>0.188101401357083</v>
+        <v>0.113148347477788</v>
       </c>
       <c r="N9" t="n">
-        <v>0.201846451513117</v>
+        <v>0.185150157064038</v>
       </c>
     </row>
     <row r="10">
@@ -867,7 +867,7 @@
         <v>22</v>
       </c>
       <c r="B10" t="n">
-        <v>0.109602462354863</v>
+        <v>0.108516161624555</v>
       </c>
       <c r="C10" t="n">
         <v>0.132640648633674</v>
@@ -897,7 +897,7 @@
         <v>0.207900123172293</v>
       </c>
       <c r="L10" t="n">
-        <v>0.0594598837685185</v>
+        <v>0.0547249303757871</v>
       </c>
       <c r="M10" t="n">
         <v>0.0050091982932567</v>
@@ -911,43 +911,43 @@
         <v>23</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0971311637888134</v>
+        <v>0.108054915619012</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0977448568617962</v>
+        <v>0.0671024241823383</v>
       </c>
       <c r="D11" t="n">
-        <v>0.107748561410452</v>
+        <v>0.0907094935471546</v>
       </c>
       <c r="E11" t="n">
-        <v>0.118838926880645</v>
+        <v>0.0563285510537544</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0871212802155489</v>
+        <v>0.0432483434768305</v>
       </c>
       <c r="G11" t="n">
-        <v>0.104562836800394</v>
+        <v>0.0308288925637526</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0803608597937457</v>
+        <v>0.081452689714342</v>
       </c>
       <c r="I11" t="n">
-        <v>0.062809296463231</v>
+        <v>0.0873940812101499</v>
       </c>
       <c r="J11" t="n">
-        <v>0.193202005944839</v>
+        <v>0.0631680841066284</v>
       </c>
       <c r="K11" t="n">
-        <v>0.12061045749135</v>
+        <v>0.155618854206164</v>
       </c>
       <c r="L11" t="n">
-        <v>0.191567847425914</v>
+        <v>0.26382606513072</v>
       </c>
       <c r="M11" t="n">
-        <v>0.035722429855013</v>
+        <v>0.0709578059931298</v>
       </c>
       <c r="N11" t="n">
-        <v>0.0531058407190556</v>
+        <v>0.0719106694806072</v>
       </c>
     </row>
     <row r="12">
@@ -955,43 +955,43 @@
         <v>24</v>
       </c>
       <c r="B12" t="n">
-        <v>0.087405255393772</v>
+        <v>0.105897273746632</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0671024241823383</v>
+        <v>0.0977448568617962</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0907094935471546</v>
+        <v>0.107748561410452</v>
       </c>
       <c r="E12" t="n">
-        <v>0.0563285510537544</v>
+        <v>0.118838926880645</v>
       </c>
       <c r="F12" t="n">
-        <v>0.0432483434768305</v>
+        <v>0.0871212802155489</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0308288925637526</v>
+        <v>0.104562836800394</v>
       </c>
       <c r="H12" t="n">
-        <v>0.081452689714342</v>
+        <v>0.0803608597937457</v>
       </c>
       <c r="I12" t="n">
-        <v>0.0873940812101499</v>
+        <v>0.062809296463231</v>
       </c>
       <c r="J12" t="n">
-        <v>0.0631680841066284</v>
+        <v>0.193202005944839</v>
       </c>
       <c r="K12" t="n">
-        <v>0.155618854206164</v>
+        <v>0.12061045749135</v>
       </c>
       <c r="L12" t="n">
-        <v>0.116633474759854</v>
+        <v>0.271808786699362</v>
       </c>
       <c r="M12" t="n">
-        <v>0.0709578059931298</v>
+        <v>0.035722429855013</v>
       </c>
       <c r="N12" t="n">
-        <v>0.0719106694806072</v>
+        <v>0.0531058407190556</v>
       </c>
     </row>
     <row r="13">
@@ -999,7 +999,7 @@
         <v>25</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0751306305423448</v>
+        <v>0.074783280562972</v>
       </c>
       <c r="C13" t="n">
         <v>0.142222302723301</v>
@@ -1029,7 +1029,7 @@
         <v>0.021805122728075</v>
       </c>
       <c r="L13" t="n">
-        <v>0.0147126267978271</v>
+        <v>0.0114558411970786</v>
       </c>
       <c r="M13" t="n">
         <v>0.063400153657688</v>
@@ -1043,7 +1043,7 @@
         <v>26</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0584640378390474</v>
+        <v>0.0573135385366308</v>
       </c>
       <c r="C14" t="n">
         <v>0.0983685001711527</v>
@@ -1073,7 +1073,7 @@
         <v>0.00578200607874687</v>
       </c>
       <c r="L14" t="n">
-        <v>0.0436941025754563</v>
+        <v>0.0382615295733116</v>
       </c>
       <c r="M14" t="n">
         <v>0.113220109044918</v>
@@ -1087,7 +1087,7 @@
         <v>27</v>
       </c>
       <c r="B15" t="n">
-        <v>0.05357203526998</v>
+        <v>0.0548094909108072</v>
       </c>
       <c r="C15" t="n">
         <v>0.0503222716239178</v>
@@ -1117,7 +1117,7 @@
         <v>0.0239819041605993</v>
       </c>
       <c r="L15" t="n">
-        <v>0.0994612074022394</v>
+        <v>0.115194950755808</v>
       </c>
       <c r="M15" t="n">
         <v>0.0391686909619266</v>
@@ -1131,7 +1131,7 @@
         <v>28</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0525274648518565</v>
+        <v>0.0524527620637507</v>
       </c>
       <c r="C16" t="n">
         <v>0.0560052351637074</v>
@@ -1161,7 +1161,7 @@
         <v>0.0892160292857261</v>
       </c>
       <c r="L16" t="n">
-        <v>0.0882342866641475</v>
+        <v>0.0848437475253124</v>
       </c>
       <c r="M16" t="n">
         <v>0.0384957272254603</v>
@@ -1175,43 +1175,43 @@
         <v>29</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0470740457028754</v>
+        <v>0.0483232859942362</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0318956347139389</v>
+        <v>0.020107200342392</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0347569102343155</v>
+        <v>0.0191072298135684</v>
       </c>
       <c r="E17" t="n">
-        <v>0.0227949352075646</v>
+        <v>0.0147445422463436</v>
       </c>
       <c r="F17" t="n">
-        <v>0.0503326400232044</v>
+        <v>0.0422960057733754</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0398434107874001</v>
+        <v>0.0138812498374743</v>
       </c>
       <c r="H17" t="n">
-        <v>0.0269444936151781</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0.0130829252163652</v>
+        <v>0.0238569653014895</v>
       </c>
       <c r="J17" t="n">
-        <v>0.0746011086790753</v>
+        <v>0.016704071214546</v>
       </c>
       <c r="K17" t="n">
-        <v>0.0587829032453478</v>
+        <v>0.0432944191285272</v>
       </c>
       <c r="L17" t="n">
-        <v>0.0569843049264169</v>
+        <v>0.114376058589707</v>
       </c>
       <c r="M17" t="n">
-        <v>0.063715983500485</v>
+        <v>0.177940248053361</v>
       </c>
       <c r="N17" t="n">
-        <v>0.0518581935554064</v>
+        <v>0.0447466308579002</v>
       </c>
     </row>
     <row r="18">
@@ -1219,43 +1219,43 @@
         <v>30</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0432993187169602</v>
+        <v>0.0450924273488087</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0159273771810526</v>
+        <v>0.0318956347139389</v>
       </c>
       <c r="D18" t="n">
-        <v>0.00431485925509307</v>
+        <v>0.0347569102343155</v>
       </c>
       <c r="E18" t="n">
-        <v>0.016641649524601</v>
+        <v>0.0227949352075646</v>
       </c>
       <c r="F18" t="n">
-        <v>0.0177719932615889</v>
+        <v>0.0503326400232044</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0223840174246049</v>
+        <v>0.0398434107874001</v>
       </c>
       <c r="H18" t="n">
-        <v>0.00528653334412038</v>
+        <v>0.0269444936151781</v>
       </c>
       <c r="I18" t="n">
-        <v>0.0263976937533577</v>
+        <v>0.0130829252163652</v>
       </c>
       <c r="J18" t="n">
-        <v>0.0110943078154441</v>
+        <v>0.0746011086790753</v>
       </c>
       <c r="K18" t="n">
-        <v>0.00363309988422034</v>
+        <v>0.0587829032453478</v>
       </c>
       <c r="L18" t="n">
-        <v>0.0112203364787645</v>
+        <v>0.0423199026190579</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>0.063715983500485</v>
       </c>
       <c r="N18" t="n">
-        <v>0.10545839437447</v>
+        <v>0.0518581935554064</v>
       </c>
     </row>
     <row r="19">
@@ -1263,43 +1263,43 @@
         <v>31</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0398581700347824</v>
+        <v>0.0419122271591407</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0465839083523768</v>
+        <v>0.0159273771810526</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0303596134606511</v>
+        <v>0.00431485925509307</v>
       </c>
       <c r="E19" t="n">
-        <v>0.067759608960212</v>
+        <v>0.016641649524601</v>
       </c>
       <c r="F19" t="n">
-        <v>0.0174913878758809</v>
+        <v>0.0177719932615889</v>
       </c>
       <c r="G19" t="n">
-        <v>0.036005597790544</v>
+        <v>0.0223840174246049</v>
       </c>
       <c r="H19" t="n">
-        <v>0.0301003740322274</v>
+        <v>0.00528653334412038</v>
       </c>
       <c r="I19" t="n">
-        <v>0.0822581165295588</v>
+        <v>0.0263976937533577</v>
       </c>
       <c r="J19" t="n">
-        <v>0.035594242190962</v>
+        <v>0.0110943078154441</v>
       </c>
       <c r="K19" t="n">
-        <v>0.0260377303001874</v>
+        <v>0.00363309988422034</v>
       </c>
       <c r="L19" t="n">
-        <v>0.00196991877156995</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>0.0116800076603586</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>0.0541361598107681</v>
+        <v>0.10545839437447</v>
       </c>
     </row>
     <row r="20">
@@ -1307,43 +1307,43 @@
         <v>32</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0395526272518621</v>
+        <v>0.0403629758493454</v>
       </c>
       <c r="C20" t="n">
-        <v>0.020107200342392</v>
+        <v>0.0465839083523768</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0191072298135684</v>
+        <v>0.0303596134606511</v>
       </c>
       <c r="E20" t="n">
-        <v>0.0147445422463436</v>
+        <v>0.067759608960212</v>
       </c>
       <c r="F20" t="n">
-        <v>0.0422960057733754</v>
+        <v>0.0174913878758809</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0138812498374743</v>
+        <v>0.036005597790544</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>0.0301003740322274</v>
       </c>
       <c r="I20" t="n">
-        <v>0.0238569653014895</v>
+        <v>0.0822581165295588</v>
       </c>
       <c r="J20" t="n">
-        <v>0.016704071214546</v>
+        <v>0.035594242190962</v>
       </c>
       <c r="K20" t="n">
-        <v>0.0432944191285272</v>
+        <v>0.0260377303001874</v>
       </c>
       <c r="L20" t="n">
-        <v>0.043864585641438</v>
+        <v>0.00629614863032136</v>
       </c>
       <c r="M20" t="n">
-        <v>0.177940248053361</v>
+        <v>0.0116800076603586</v>
       </c>
       <c r="N20" t="n">
-        <v>0.0447466308579002</v>
+        <v>0.0541361598107681</v>
       </c>
     </row>
     <row r="21">
@@ -1351,43 +1351,43 @@
         <v>33</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0375052767931005</v>
+        <v>0.0326044250127659</v>
       </c>
       <c r="C21" t="n">
-        <v>0.017031276019717</v>
+        <v>0.0337159523942901</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0142180700661177</v>
+        <v>0.0350914726918312</v>
       </c>
       <c r="E21" t="n">
-        <v>0.0350788999893401</v>
+        <v>0.019411861832518</v>
       </c>
       <c r="F21" t="n">
-        <v>0.00468058621332618</v>
+        <v>0.017089497696424</v>
       </c>
       <c r="G21" t="n">
+        <v>0.00930785373822185</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.0669189269466735</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0.0458679954908412</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0.0169749940170554</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0.00761920287517245</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0.0573762896815998</v>
+      </c>
+      <c r="M21" t="n">
         <v>0</v>
       </c>
-      <c r="H21" t="n">
-        <v>0.00830775886317187</v>
-      </c>
-      <c r="I21" t="n">
-        <v>0.0275557774206001</v>
-      </c>
-      <c r="J21" t="n">
-        <v>0</v>
-      </c>
-      <c r="K21" t="n">
-        <v>0.0082594908632089</v>
-      </c>
-      <c r="L21" t="n">
-        <v>0.1132322537932</v>
-      </c>
-      <c r="M21" t="n">
-        <v>0.0372946625769812</v>
-      </c>
       <c r="N21" t="n">
-        <v>0.0436983227225689</v>
+        <v>0.0325956882961598</v>
       </c>
     </row>
     <row r="22">
@@ -1395,7 +1395,7 @@
         <v>34</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0347947851537257</v>
+        <v>0.0314647462468635</v>
       </c>
       <c r="C22" t="n">
         <v>0.0464235438367558</v>
@@ -1425,7 +1425,7 @@
         <v>0.0427783149825694</v>
       </c>
       <c r="L22" t="n">
-        <v>0.0557991043447602</v>
+        <v>0.0406227341544564</v>
       </c>
       <c r="M22" t="n">
         <v>0</v>
@@ -1439,43 +1439,43 @@
         <v>35</v>
       </c>
       <c r="B23" t="n">
-        <v>0.0263716188475506</v>
+        <v>0.0312921717367679</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0246002728483537</v>
+        <v>0.017031276019717</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0188877599120833</v>
+        <v>0.0142180700661177</v>
       </c>
       <c r="E23" t="n">
-        <v>0.0619870811812808</v>
+        <v>0.0350788999893401</v>
       </c>
       <c r="F23" t="n">
-        <v>0.00819962221981932</v>
+        <v>0.00468058621332618</v>
       </c>
       <c r="G23" t="n">
-        <v>0.00578913863703181</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0.0169166175940457</v>
+        <v>0.00830775886317187</v>
       </c>
       <c r="I23" t="n">
-        <v>0.0161053819456598</v>
+        <v>0.0275557774206001</v>
       </c>
       <c r="J23" t="n">
-        <v>0.0191112586923636</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>0.0558648964707215</v>
+        <v>0.0082594908632089</v>
       </c>
       <c r="L23" t="n">
-        <v>0.013574354678336</v>
+        <v>0.0639944335058778</v>
       </c>
       <c r="M23" t="n">
-        <v>0.0346828509910579</v>
+        <v>0.0372946625769812</v>
       </c>
       <c r="N23" t="n">
-        <v>0.0198152593563636</v>
+        <v>0.0436983227225689</v>
       </c>
     </row>
     <row r="24">
@@ -1483,43 +1483,43 @@
         <v>36</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0247534060930215</v>
+        <v>0.0277108854658857</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0337159523942901</v>
+        <v>0.0246002728483537</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0350914726918312</v>
+        <v>0.0188877599120833</v>
       </c>
       <c r="E24" t="n">
-        <v>0.019411861832518</v>
+        <v>0.0619870811812808</v>
       </c>
       <c r="F24" t="n">
-        <v>0.017089497696424</v>
+        <v>0.00819962221981932</v>
       </c>
       <c r="G24" t="n">
-        <v>0.00930785373822185</v>
+        <v>0.00578913863703181</v>
       </c>
       <c r="H24" t="n">
-        <v>0.0669189269466735</v>
+        <v>0.0169166175940457</v>
       </c>
       <c r="I24" t="n">
-        <v>0.0458679954908412</v>
+        <v>0.0161053819456598</v>
       </c>
       <c r="J24" t="n">
-        <v>0.0169749940170554</v>
+        <v>0.0191112586923636</v>
       </c>
       <c r="K24" t="n">
-        <v>0.00761920287517245</v>
+        <v>0.0558648964707215</v>
       </c>
       <c r="L24" t="n">
-        <v>0.00213424185990759</v>
+        <v>0.0273815458655608</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>0.0346828509910579</v>
       </c>
       <c r="N24" t="n">
-        <v>0.0325956882961598</v>
+        <v>0.0198152593563636</v>
       </c>
     </row>
     <row r="25">
@@ -1527,7 +1527,7 @@
         <v>37</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0216036772777795</v>
+        <v>0.0197176026547576</v>
       </c>
       <c r="C25" t="n">
         <v>0.00785300887067463</v>
@@ -1557,7 +1557,7 @@
         <v>0.00945162809051546</v>
       </c>
       <c r="L25" t="n">
-        <v>0.0416277601015033</v>
+        <v>0.0366245499224145</v>
       </c>
       <c r="M25" t="n">
         <v>0.0482084199597589</v>
@@ -1571,7 +1571,7 @@
         <v>38</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0157544662076686</v>
+        <v>0.0153318121650389</v>
       </c>
       <c r="C26" t="n">
         <v>0.00936358964692031</v>
@@ -1601,7 +1601,7 @@
         <v>0.00867228151468973</v>
       </c>
       <c r="L26" t="n">
-        <v>0.00265630970916617</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
         <v>0.0546232102563983</v>
@@ -1615,7 +1615,7 @@
         <v>39</v>
       </c>
       <c r="B27" t="n">
-        <v>0.013388049366521</v>
+        <v>0.0150792992577955</v>
       </c>
       <c r="C27" t="n">
         <v>0.0237797019455623</v>
@@ -1645,7 +1645,7 @@
         <v>0.00228606394348984</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>0.0123042531636731</v>
       </c>
       <c r="M27" t="n">
         <v>0.0219729990376026</v>
@@ -1659,7 +1659,7 @@
         <v>40</v>
       </c>
       <c r="B28" t="n">
-        <v>0.00971079930183032</v>
+        <v>0.00936128373356803</v>
       </c>
       <c r="C28" t="n">
         <v>0.0114919330079454</v>
@@ -1689,7 +1689,7 @@
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>0.00583407521610505</v>
+        <v>0.00591440312288486</v>
       </c>
       <c r="M28" t="n">
         <v>0.00346264626491969</v>
